--- a/_2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/_2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v0_Git0\2ИСИП-321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2020\Downloads\KipFin_Lab_2023_v1_Git0\_2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE2A2C8-35EB-41CE-9D11-8273B1028926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64249C76-B02D-4130-9E8C-3C8BADFAADE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Лаб_1</t>
+  </si>
+  <si>
+    <t>Тест</t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
   <dimension ref="A1:W32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -526,10 +529,12 @@
       <c r="W1" s="5"/>
     </row>
     <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -549,7 +554,6 @@
       <c r="U3" s="1"/>
     </row>
     <row r="4" spans="1:23" ht="13" x14ac:dyDescent="0.25">
-      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -576,7 +580,6 @@
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -603,7 +606,6 @@
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -630,7 +632,6 @@
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -657,7 +658,6 @@
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -684,7 +684,6 @@
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -711,10 +710,9 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -740,10 +738,9 @@
       <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2">
+      <c r="D11" s="2">
         <v>5</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -769,7 +766,6 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -796,7 +792,6 @@
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -823,7 +818,6 @@
       <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -850,7 +844,6 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -877,7 +870,6 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -904,7 +896,6 @@
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -931,7 +922,6 @@
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -958,7 +948,6 @@
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -985,7 +974,6 @@
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1012,7 +1000,6 @@
       <c r="B21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1039,10 +1026,12 @@
       <c r="B22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="2">
+        <v>5</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1068,10 +1057,9 @@
       <c r="B23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="2">
+      <c r="D23" s="2">
         <v>5</v>
       </c>
-      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1097,7 +1085,6 @@
       <c r="B24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1124,7 +1111,6 @@
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1151,10 +1137,9 @@
       <c r="B26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="2">
+      <c r="D26" s="2">
         <v>5</v>
       </c>
-      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1180,7 +1165,6 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1207,7 +1191,6 @@
       <c r="B28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1234,7 +1217,9 @@
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29">
+        <v>5</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1261,7 +1246,6 @@
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1288,7 +1272,6 @@
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1309,7 +1292,6 @@
       <c r="U31" s="2"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>

--- a/_2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/_2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\2ИСИП-321\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\_2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6579F65F-FBB1-4576-8E68-3D22C1604D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D7F39-27B2-4722-B49C-D1E4711FAC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>Т_4</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -559,13 +562,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T5" sqref="T5"/>
+      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -577,8 +580,8 @@
     <col min="11" max="21" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:21" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -633,7 +636,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -650,7 +653,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -666,6 +669,9 @@
       <c r="E4" s="6">
         <v>5</v>
       </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
       <c r="G4" s="4">
         <v>5</v>
       </c>
@@ -699,15 +705,20 @@
       <c r="Q4" s="2">
         <v>5</v>
       </c>
-      <c r="R4" s="2"/>
+      <c r="R4" s="2">
+        <v>5</v>
+      </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2">
         <f>SUM(C4:S4)</f>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="W4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -740,7 +751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -780,19 +791,32 @@
       <c r="M6" s="4">
         <v>5</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
+      <c r="N6" s="2">
+        <v>5</v>
+      </c>
+      <c r="O6" s="2">
+        <v>5</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>5</v>
+      </c>
+      <c r="R6" s="2">
+        <v>5</v>
+      </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="W6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -849,8 +873,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -907,8 +934,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -965,8 +995,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1021,8 +1054,11 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1079,8 +1115,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1105,7 +1144,9 @@
       <c r="J12" s="7">
         <v>5</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>5</v>
+      </c>
       <c r="L12" s="2">
         <v>5</v>
       </c>
@@ -1129,10 +1170,10 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1172,17 +1213,19 @@
       <c r="O13" s="2">
         <v>5</v>
       </c>
-      <c r="P13" s="2"/>
+      <c r="P13" s="2">
+        <v>5</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1221,18 +1264,29 @@
         <v>5</v>
       </c>
       <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="2">
+        <v>5</v>
+      </c>
+      <c r="P14" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>5</v>
+      </c>
+      <c r="R14" s="2">
+        <v>5</v>
+      </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="W14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1271,18 +1325,27 @@
         <v>5</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
+      <c r="O15" s="2">
+        <v>5</v>
+      </c>
+      <c r="P15" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>5</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="W15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1341,8 +1404,11 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1396,7 +1462,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1440,15 +1506,17 @@
       <c r="Q18" s="2">
         <v>5</v>
       </c>
-      <c r="R18" s="2"/>
+      <c r="R18" s="2">
+        <v>5</v>
+      </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1502,7 +1570,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1556,7 +1624,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1611,8 +1679,11 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1669,8 +1740,11 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1724,7 +1798,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1756,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1806,7 +1880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1861,8 +1935,11 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1892,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -1939,14 +2016,19 @@
       <c r="R28" s="2">
         <v>5</v>
       </c>
-      <c r="S28" s="2"/>
+      <c r="S28" s="2">
+        <v>5</v>
+      </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="W28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -1956,7 +2038,9 @@
       <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" s="6">
+        <v>5</v>
+      </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6">
         <v>5</v>
@@ -1995,10 +2079,10 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2038,17 +2122,19 @@
       <c r="O30" s="2">
         <v>5</v>
       </c>
-      <c r="P30" s="2"/>
+      <c r="P30" s="2">
+        <v>5</v>
+      </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>

--- a/_2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/_2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\_2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D7F39-27B2-4722-B49C-D1E4711FAC07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B589945D-8FAF-4F5A-94B1-487504F5139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>А</t>
   </si>
 </sst>
 </file>
@@ -192,7 +195,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,6 +211,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -256,6 +265,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -568,7 +581,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1840,8 +1853,12 @@
       <c r="C25" s="5">
         <v>5</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="8">
+        <v>5</v>
+      </c>
+      <c r="E25" s="8">
+        <v>5</v>
+      </c>
       <c r="F25" s="6">
         <v>5</v>
       </c>
@@ -1861,7 +1878,9 @@
       <c r="L25" s="2">
         <v>5</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" s="9">
+        <v>5</v>
+      </c>
       <c r="N25" s="2"/>
       <c r="O25" s="4">
         <v>5</v>
@@ -1877,7 +1896,10 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>65</v>
+      </c>
+      <c r="W25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/_2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/_2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\_2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B589945D-8FAF-4F5A-94B1-487504F5139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3FD1B0-8B08-478B-A201-8F8045C6FCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>А</t>
+  </si>
+  <si>
+    <t>н</t>
   </si>
 </sst>
 </file>
@@ -575,13 +578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W1" sqref="W1"/>
+      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -593,8 +596,8 @@
     <col min="11" max="21" width="5.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:23" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:25" ht="29" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>37</v>
       </c>
@@ -649,7 +652,7 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -666,7 +669,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -731,7 +734,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -763,8 +766,11 @@
         <f t="shared" ref="U5:U30" si="0">SUM(C5:S5)</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="W6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="W7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -951,7 +963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1012,7 +1024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1071,7 +1083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1132,7 +1144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1185,8 +1197,14 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <v>23</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1237,8 +1255,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1298,8 +1319,11 @@
       <c r="W14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -1357,8 +1381,11 @@
       <c r="W15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -1420,8 +1447,11 @@
       <c r="W16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1474,8 +1504,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1528,8 +1561,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X18">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1582,8 +1618,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1636,8 +1675,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1696,7 +1738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1757,7 +1799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1810,8 +1852,11 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1842,8 +1887,11 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1902,7 +1950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -1961,7 +2009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -1990,8 +2038,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2050,7 +2101,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2063,7 +2114,9 @@
       <c r="D29" s="6">
         <v>5</v>
       </c>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6">
+        <v>5</v>
+      </c>
       <c r="F29" s="6">
         <v>5</v>
       </c>
@@ -2101,10 +2154,13 @@
       <c r="T29" s="2"/>
       <c r="U29" s="2">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="W29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2155,8 +2211,11 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="X30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>

--- a/_2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/_2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\_2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3FD1B0-8B08-478B-A201-8F8045C6FCC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E87C68B-6FC3-4EEB-95E9-F5129858F614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y7" sqref="Y7"/>
+      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -733,6 +733,9 @@
       <c r="W4" t="s">
         <v>44</v>
       </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -962,6 +965,9 @@
       <c r="W8" t="s">
         <v>44</v>
       </c>
+      <c r="Y8">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1451,7 +1457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -1508,7 +1514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1678,8 +1684,11 @@
       <c r="X20">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1738,7 +1747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1798,8 +1807,11 @@
       <c r="W22" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1856,7 +1868,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1891,7 +1903,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -1950,7 +1962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2008,8 +2020,11 @@
       <c r="W26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2042,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2100,8 +2115,11 @@
       <c r="W28" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2159,8 +2177,11 @@
       <c r="W29" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2215,7 +2236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" ht="13" thickTop="1" x14ac:dyDescent="0.25">
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>

--- a/_2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/_2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\_2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E87C68B-6FC3-4EEB-95E9-F5129858F614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4E1859-AB43-4D4D-86FE-F2549B153F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
+      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1029,6 +1029,9 @@
       <c r="W9" t="s">
         <v>44</v>
       </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1148,6 +1151,9 @@
       </c>
       <c r="W11" t="s">
         <v>44</v>
+      </c>
+      <c r="Y11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1745,6 +1751,9 @@
       </c>
       <c r="W21" t="s">
         <v>44</v>
+      </c>
+      <c r="Y21">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1960,6 +1969,9 @@
       </c>
       <c r="W25" t="s">
         <v>45</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/_2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/_2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\_2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4E1859-AB43-4D4D-86FE-F2549B153F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBCDEC2-B0CC-4330-855D-AFC72C602C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -584,7 +584,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA9" sqref="AA9"/>
+      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1090,6 +1090,9 @@
       </c>
       <c r="W10" t="s">
         <v>44</v>
+      </c>
+      <c r="Y10">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/_2ИСИП-321/2ИСИП-321_Сети.xlsx
+++ b/_2ИСИП-321/2ИСИП-321_Сети.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\Git_Hub_V2\KipFin_Lab_2023_v0_Git0\_2ИСИП-321\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBCDEC2-B0CC-4330-855D-AFC72C602C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58E89D2-23DD-49C3-8F5A-29FE5746BB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>Аушев Ибрагим</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>н</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
+      <selection pane="bottomRight" activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -772,6 +775,9 @@
       <c r="X5">
         <v>6</v>
       </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1273,6 +1279,9 @@
       <c r="X13">
         <v>5</v>
       </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1522,6 +1531,9 @@
       <c r="X17">
         <v>10</v>
       </c>
+      <c r="Y17">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1578,6 +1590,9 @@
       </c>
       <c r="X18">
         <v>24</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1635,6 +1650,9 @@
       </c>
       <c r="X19">
         <v>8</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1878,6 +1896,9 @@
       </c>
       <c r="X23">
         <v>20</v>
+      </c>
+      <c r="Y23">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1913,6 +1934,9 @@
       </c>
       <c r="X24" t="s">
         <v>46</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2071,6 +2095,9 @@
       <c r="X27">
         <v>1</v>
       </c>
+      <c r="Y27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:25" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -2249,6 +2276,9 @@
       </c>
       <c r="X30">
         <v>9</v>
+      </c>
+      <c r="Y30">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="13" thickTop="1" x14ac:dyDescent="0.25">
@@ -2271,6 +2301,18 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="U4:U30">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:Y30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
